--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Liph-Lpar4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Liph-Lpar4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Liph</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +543,10 @@
         <v>0.05799</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.300533666666666</v>
+        <v>9.066809666666666</v>
       </c>
       <c r="N2">
-        <v>9.901600999999999</v>
+        <v>27.200429</v>
       </c>
       <c r="O2">
-        <v>0.1176327418163066</v>
+        <v>0.1764355489321196</v>
       </c>
       <c r="P2">
-        <v>0.1176327418163066</v>
+        <v>0.1764355489321196</v>
       </c>
       <c r="Q2">
-        <v>0.06379931577666666</v>
+        <v>0.1752614308566667</v>
       </c>
       <c r="R2">
-        <v>0.57419384199</v>
+        <v>1.57735287771</v>
       </c>
       <c r="S2">
-        <v>0.1176327418163066</v>
+        <v>0.05704447748981721</v>
       </c>
       <c r="T2">
-        <v>0.1176327418163066</v>
+        <v>0.05704447748981721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +605,10 @@
         <v>0.05799</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>56.666957</v>
       </c>
       <c r="O3">
-        <v>0.6732133038179124</v>
+        <v>0.3675701462137901</v>
       </c>
       <c r="P3">
-        <v>0.6732133038179124</v>
+        <v>0.3675701462137901</v>
       </c>
       <c r="Q3">
         <v>0.3651240929366666</v>
@@ -632,10 +635,10 @@
         <v>3.28611683643</v>
       </c>
       <c r="S3">
-        <v>0.6732133038179124</v>
+        <v>0.1188413959575027</v>
       </c>
       <c r="T3">
-        <v>0.6732133038179124</v>
+        <v>0.1188413959575027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +667,10 @@
         <v>0.05799</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,400 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.868431333333334</v>
+        <v>23.43299633333334</v>
       </c>
       <c r="N4">
-        <v>17.605294</v>
+        <v>70.29898900000001</v>
       </c>
       <c r="O4">
-        <v>0.209153954365781</v>
+        <v>0.4559943048540903</v>
       </c>
       <c r="P4">
-        <v>0.209153954365781</v>
+        <v>0.4559943048540903</v>
       </c>
       <c r="Q4">
-        <v>0.1134367776733333</v>
+        <v>0.4529598191233334</v>
       </c>
       <c r="R4">
-        <v>1.02093099906</v>
+        <v>4.076638372110001</v>
       </c>
       <c r="S4">
-        <v>0.209153954365781</v>
+        <v>0.1474303620566943</v>
       </c>
       <c r="T4">
-        <v>0.209153954365781</v>
+        <v>0.1474303620566943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.042196</v>
+      </c>
+      <c r="I5">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J5">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>9.066809666666666</v>
+      </c>
+      <c r="N5">
+        <v>27.200429</v>
+      </c>
+      <c r="O5">
+        <v>0.1764355489321196</v>
+      </c>
+      <c r="P5">
+        <v>0.1764355489321196</v>
+      </c>
+      <c r="Q5">
+        <v>0.1275277002315555</v>
+      </c>
+      <c r="R5">
+        <v>1.147749302084</v>
+      </c>
+      <c r="S5">
+        <v>0.04150799745060056</v>
+      </c>
+      <c r="T5">
+        <v>0.04150799745060057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.042196</v>
+      </c>
+      <c r="I6">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J6">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>18.88898566666667</v>
+      </c>
+      <c r="N6">
+        <v>56.666957</v>
+      </c>
+      <c r="O6">
+        <v>0.3675701462137901</v>
+      </c>
+      <c r="P6">
+        <v>0.3675701462137901</v>
+      </c>
+      <c r="Q6">
+        <v>0.2656798797302222</v>
+      </c>
+      <c r="R6">
+        <v>2.391118917572</v>
+      </c>
+      <c r="S6">
+        <v>0.08647407387175005</v>
+      </c>
+      <c r="T6">
+        <v>0.08647407387175003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.042196</v>
+      </c>
+      <c r="I7">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J7">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.43299633333334</v>
+      </c>
+      <c r="N7">
+        <v>70.29898900000001</v>
+      </c>
+      <c r="O7">
+        <v>0.4559943048540903</v>
+      </c>
+      <c r="P7">
+        <v>0.4559943048540903</v>
+      </c>
+      <c r="Q7">
+        <v>0.3295929044271111</v>
+      </c>
+      <c r="R7">
+        <v>2.966336139844</v>
+      </c>
+      <c r="S7">
+        <v>0.1072766262690856</v>
+      </c>
+      <c r="T7">
+        <v>0.1072766262690856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J8">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.066809666666666</v>
+      </c>
+      <c r="N8">
+        <v>27.200429</v>
+      </c>
+      <c r="O8">
+        <v>0.1764355489321196</v>
+      </c>
+      <c r="P8">
+        <v>0.1764355489321196</v>
+      </c>
+      <c r="Q8">
+        <v>0.2392851961828889</v>
+      </c>
+      <c r="R8">
+        <v>2.153566765646</v>
+      </c>
+      <c r="S8">
+        <v>0.0778830739917018</v>
+      </c>
+      <c r="T8">
+        <v>0.0778830739917018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J9">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.88898566666667</v>
+      </c>
+      <c r="N9">
+        <v>56.666957</v>
+      </c>
+      <c r="O9">
+        <v>0.3675701462137901</v>
+      </c>
+      <c r="P9">
+        <v>0.3675701462137901</v>
+      </c>
+      <c r="Q9">
+        <v>0.4985055170575555</v>
+      </c>
+      <c r="R9">
+        <v>4.486549653518</v>
+      </c>
+      <c r="S9">
+        <v>0.1622546763845373</v>
+      </c>
+      <c r="T9">
+        <v>0.1622546763845373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J10">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.43299633333334</v>
+      </c>
+      <c r="N10">
+        <v>70.29898900000001</v>
+      </c>
+      <c r="O10">
+        <v>0.4559943048540903</v>
+      </c>
+      <c r="P10">
+        <v>0.4559943048540903</v>
+      </c>
+      <c r="Q10">
+        <v>0.6184280172317778</v>
+      </c>
+      <c r="R10">
+        <v>5.565852155086001</v>
+      </c>
+      <c r="S10">
+        <v>0.2012873165283103</v>
+      </c>
+      <c r="T10">
+        <v>0.2012873165283103</v>
       </c>
     </row>
   </sheetData>
